--- a/a-place-for-salvador-allende/countries/Netherlands.xlsx
+++ b/a-place-for-salvador-allende/countries/Netherlands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="11_4221C2FFF613C8A64D83F3A5E1E090C95416B813" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CC39C82-1AAA-430D-A58F-B4B4374CDAF6}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="11_4221C2FFF613C8A64D83F3A5E1E090C95416B813" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DACB9BB9-0120-4FC9-B59D-9C9FD0067F42}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -301,6 +301,9 @@
   <si>
     <t>Salvador Allendestraat
 Salvador Allende-Gossens, 1908-1973, president van Chili, omgekomen bij staatsgreep</t>
+  </si>
+  <si>
+    <t>desc other</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,16 +913,10 @@
         <v>4.8122349896955399</v>
       </c>
       <c r="N3">
-        <v>2007</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>18</v>
+        <v>1974</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="V3">
         <v>1</v>
